--- a/documentacion/Planificacion.xlsx
+++ b/documentacion/Planificacion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raul4\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raul4\Documents\Visual Studio Code\ipc2-proyecto-d2s\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A04872B-3366-478C-A7CF-F39516B44049}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46DA90A-7DE0-42A8-B506-8ABEB343BEA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{224C66E2-F390-4B27-8E04-1773E2EE65C6}"/>
   </bookViews>
@@ -613,7 +613,7 @@
   <dimension ref="B3:AJ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection activeCell="AL3" sqref="AL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
